--- a/multi_factors/multi_factors.xlsx
+++ b/multi_factors/multi_factors.xlsx
@@ -52,22 +52,22 @@
     <t>outside_comb_factors</t>
   </si>
   <si>
-    <t>样本内等权重组合因子sky_3,sky_5,sky_7,sky_8,sky_9</t>
-  </si>
-  <si>
-    <t>样本外等权重组合因子sky_3,sky_5,sky_7,sky_8,sky_9</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.11, '休闲服务': 0.05, '传媒': 0.14, '公用事业': 0.1, '农林牧渔': 0.1, '化工': 0.13, '医药生物': 0.07, '商业贸易': 0.12, '国防军工': 0.09, '家用电器': 0.06, '建筑材料': 0.13, '建筑装饰': 0.11, '房地产': 0.1, '有色金属': 0.08, '机械设备': 0.09, '汽车': 0.09, '电子': 0.07, '电气设备': 0.11, '纺织服装': 0.12, '综合': 0.11, '计算机': 0.1, '轻工制造': 0.13, '通信': 0.08, '采掘': 0.09, '钢铁': 0.1, '非银金融': 0.12, '食品饮料': 0.08}</t>
-  </si>
-  <si>
-    <t>{'交通运输': 0.13, '休闲服务': 0.05, '传媒': 0.09, '公用事业': 0.15, '农林牧渔': 0.15, '医药生物': 0.08, '商业贸易': 0.08, '国防军工': 0.16, '建筑装饰': 0.15, '房地产': 0.05, '有色金属': 0.17, '机械设备': 0.05, '汽车': 0.14, '电气设备': 0.1, '综合': 0.14, '采掘': 0.1, '钢铁': 0.16, '银行': 0.16, '非银金融': 0.08, '食品饮料': 0.05}</t>
-  </si>
-  <si>
-    <t>{'equal_weight_ic': 0.0891823367428282}</t>
-  </si>
-  <si>
-    <t>{'equal_weight_ic': 0.06998865278632457}</t>
+    <t>样本内多因子合并:sky_4,sky_5,sky_7,sky_8,alpha83</t>
+  </si>
+  <si>
+    <t>样本外多因子合并:sky_4,sky_5,sky_7,sky_8,alpha83</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.1, '传媒': 0.12, '公用事业': 0.1, '农林牧渔': 0.09, '化工': 0.11, '医药生物': 0.07, '商业贸易': 0.11, '国防军工': 0.07, '家用电器': 0.07, '建筑材料': 0.12, '建筑装饰': 0.11, '房地产': 0.1, '有色金属': 0.08, '机械设备': 0.1, '汽车': 0.07, '电子': 0.06, '电气设备': 0.1, '纺织服装': 0.09, '综合': 0.08, '计算机': 0.09, '轻工制造': 0.12, '通信': 0.06, '采掘': 0.06, '钢铁': 0.07, '非银金融': 0.09, '食品饮料': 0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': 0.13, '传媒': 0.1, '公用事业': 0.17, '农林牧渔': 0.17, '医药生物': 0.08, '商业贸易': 0.11, '国防军工': 0.11, '建筑材料': 0.05, '建筑装饰': 0.11, '有色金属': 0.2, '机械设备': 0.07, '汽车': 0.15, '电子': 0.05, '电气设备': 0.12, '纺织服装': 0.1, '综合': 0.16, '采掘': 0.08, '钢铁': 0.2, '非银金融': 0.13, '食品饮料': 0.1}</t>
+  </si>
+  <si>
+    <t>{'equal_weight': 0.07707189839869574, 'ic_weight': 0.08317052110262917, 'ir_weight': 0.08058695237565743, 'max_IR': 0.06891473595968468, 'max_IC': 0.04062769815188764}</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>sw1</t>
